--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H2" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I2" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L2" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N2" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P2" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H3" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I3" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L3" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N3" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P3" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H4" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I4" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L4" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N4" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P4" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q4" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H5" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I5" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L5" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N5" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P5" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q5" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H6" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I6" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L6" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N6" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P6" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q6" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H7" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I7" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L7" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N7" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P7" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q7" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H8" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I8" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L8" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N8" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P8" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q8" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H9" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I9" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L9" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N9" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P9" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q9" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H10" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I10" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L10" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N10" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P10" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H11" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I11" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L11" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N11" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P11" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H12" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I12" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L12" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N12" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P12" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q12" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H13" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I13" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L13" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N13" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P13" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H14" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I14" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L14" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N14" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P14" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H15" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I15" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L15" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N15" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P15" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q15" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H16" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I16" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L16" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N16" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P16" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H17" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I17" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L17" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N17" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P17" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H18" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I18" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L18" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N18" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P18" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q18" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H19" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I19" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L19" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N19" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P19" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q19" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H20" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I20" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L20" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N20" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P20" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H21" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I21" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L21" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N21" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P21" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q21" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H22" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I22" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L22" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N22" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P22" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q22" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H23" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I23" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L23" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N23" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P23" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H24" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I24" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L24" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N24" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P24" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q24" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H25" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I25" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L25" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N25" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P25" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q25" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9688783754971002</v>
+        <v>0.9298247212236502</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7954973966354667</v>
+        <v>0.7246052329558914</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999999999899187</v>
+        <v>0.9892919767590101</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9159551625499621</v>
+        <v>0.6449069017050311</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9306328042124904</v>
+        <v>0.8488307648806226</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2081104463527953</v>
+        <v>0.469262412304898</v>
       </c>
       <c r="H26" t="n">
-        <v>1.367509850346538</v>
+        <v>1.841566075300257</v>
       </c>
       <c r="I26" t="n">
-        <v>9.398937433658814e-12</v>
+        <v>0.01774961222854259</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4048825324774325</v>
+        <v>0.8985662428071279</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2024412662443697</v>
+        <v>0.4581579275178352</v>
       </c>
       <c r="L26" t="n">
-        <v>1.428698085044756</v>
+        <v>0.3376508542801637</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4561912387944285</v>
+        <v>0.6850273077074358</v>
       </c>
       <c r="N26" t="n">
-        <v>1.057455306774584</v>
+        <v>1.129554360817876</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4756122442759567</v>
+        <v>0.7141903383985572</v>
       </c>
       <c r="P26" t="n">
-        <v>77.13937269625296</v>
+        <v>75.51318630499273</v>
       </c>
       <c r="Q26" t="n">
-        <v>122.2377782163764</v>
+        <v>120.6115918251162</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_18_8.xlsx
@@ -518,386 +518,386 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_0</t>
+          <t>model_18_8_11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9928049833241714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7118308183623865</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9509019738315213</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9531568469567512</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9532646850203812</v>
       </c>
       <c r="G2" t="n">
-        <v>0.469262412304898</v>
+        <v>0.0481131096412707</v>
       </c>
       <c r="H2" t="n">
-        <v>1.841566075300257</v>
+        <v>1.926988644507795</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.09022227205180626</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1773994578777425</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1338108563109829</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.170482393379996</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2193470073679391</v>
       </c>
       <c r="N2" t="n">
-        <v>1.129554360817876</v>
+        <v>1.013283107709222</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2286850635824934</v>
       </c>
       <c r="P2" t="n">
-        <v>75.51318630499273</v>
+        <v>80.06840117858155</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.6115918251162</v>
+        <v>125.166806698705</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_22</t>
+          <t>model_18_8_12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.992909831945221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7118300495988468</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9473176193722775</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9543936413623881</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9529324039036944</v>
       </c>
       <c r="G3" t="n">
-        <v>0.469262412304898</v>
+        <v>0.04741198642952957</v>
       </c>
       <c r="H3" t="n">
-        <v>1.841566075300257</v>
+        <v>1.926993785233125</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.09680886276407437</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1727156003059936</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1347622315350339</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.18006960903286</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2177429365778132</v>
       </c>
       <c r="N3" t="n">
-        <v>1.129554360817876</v>
+        <v>1.013089541024207</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2270127041779475</v>
       </c>
       <c r="P3" t="n">
-        <v>75.51318630499273</v>
+        <v>80.09776040797861</v>
       </c>
       <c r="Q3" t="n">
-        <v>120.6115918251162</v>
+        <v>125.196165928102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_21</t>
+          <t>model_18_8_13</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9929690036535207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.711797637632682</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9439656553099512</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9553286927854933</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9524751434508234</v>
       </c>
       <c r="G4" t="n">
-        <v>0.469262412304898</v>
+        <v>0.04701630494366817</v>
       </c>
       <c r="H4" t="n">
-        <v>1.841566075300257</v>
+        <v>1.927210524200111</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.1029684141175509</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1691744719922458</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1360714430548984</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.188512627721411</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.216832435174418</v>
       </c>
       <c r="N4" t="n">
-        <v>1.129554360817876</v>
+        <v>1.012980300947346</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2260634408448121</v>
       </c>
       <c r="P4" t="n">
-        <v>75.51318630499273</v>
+        <v>80.1145216474753</v>
       </c>
       <c r="Q4" t="n">
-        <v>120.6115918251162</v>
+        <v>125.2129271675987</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_20</t>
+          <t>model_18_8_10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9926403213145577</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7117880511158157</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9547140684284902</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9515389383753202</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9534179934780047</v>
       </c>
       <c r="G5" t="n">
-        <v>0.469262412304898</v>
+        <v>0.04921420525775694</v>
       </c>
       <c r="H5" t="n">
-        <v>1.841566075300257</v>
+        <v>1.927274629282539</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.083217187272334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1835266309349575</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1333719091036458</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.159587612247547</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2218427489411293</v>
       </c>
       <c r="N5" t="n">
-        <v>1.129554360817876</v>
+        <v>1.013587099111586</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2312870540413516</v>
       </c>
       <c r="P5" t="n">
-        <v>75.51318630499273</v>
+        <v>80.02314594481138</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.6115918251162</v>
+        <v>125.1215514649348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_19</t>
+          <t>model_18_8_14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9929936226947293</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7117429552696884</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9408461954060058</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9560251000903096</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9519346674487623</v>
       </c>
       <c r="G6" t="n">
-        <v>0.469262412304898</v>
+        <v>0.04685167730174612</v>
       </c>
       <c r="H6" t="n">
-        <v>1.841566075300257</v>
+        <v>1.927576185413239</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.1087007170647754</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1665371115604564</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1376189143126159</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.195966742631725</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.216452482780277</v>
       </c>
       <c r="N6" t="n">
-        <v>1.129554360817876</v>
+        <v>1.01293485040973</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2256673130906426</v>
       </c>
       <c r="P6" t="n">
-        <v>75.51318630499273</v>
+        <v>80.12153693881433</v>
       </c>
       <c r="Q6" t="n">
-        <v>120.6115918251162</v>
+        <v>125.2199424589378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_18</t>
+          <t>model_18_8_9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9923982611049154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7116864542690078</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9587430274060983</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9494421112055469</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9533241655371377</v>
       </c>
       <c r="G7" t="n">
-        <v>0.469262412304898</v>
+        <v>0.05083286299421984</v>
       </c>
       <c r="H7" t="n">
-        <v>1.841566075300257</v>
+        <v>1.927954007864954</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.07581359365910023</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1914675140526607</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1336405538558805</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.147195954690364</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2254614445847002</v>
       </c>
       <c r="N7" t="n">
-        <v>1.129554360817876</v>
+        <v>1.014033979498618</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.235059805050202</v>
       </c>
       <c r="P7" t="n">
-        <v>75.51318630499273</v>
+        <v>79.95842444843662</v>
       </c>
       <c r="Q7" t="n">
-        <v>120.6115918251162</v>
+        <v>125.05682996856</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_17</t>
+          <t>model_18_8_15</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9929925493084858</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7116730530360179</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9379539482320705</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9565345614831039</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9513434683646954</v>
       </c>
       <c r="G8" t="n">
-        <v>0.469262412304898</v>
+        <v>0.04685885504049882</v>
       </c>
       <c r="H8" t="n">
-        <v>1.841566075300257</v>
+        <v>1.928043621971664</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.1140154951064105</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1646077330062862</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1393116140563484</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.202549138889786</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2164690625482053</v>
       </c>
       <c r="N8" t="n">
-        <v>1.129554360817876</v>
+        <v>1.012936832045872</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2256845986936165</v>
       </c>
       <c r="P8" t="n">
-        <v>75.51318630499273</v>
+        <v>80.12123055964489</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.6115918251162</v>
+        <v>125.2196360797683</v>
       </c>
     </row>
     <row r="9">
@@ -907,987 +907,987 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9929727450763914</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7115934646573262</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9352822265854256</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9568978829913828</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9507263872380145</v>
       </c>
       <c r="G9" t="n">
-        <v>0.469262412304898</v>
+        <v>0.04699128603170404</v>
       </c>
       <c r="H9" t="n">
-        <v>1.841566075300257</v>
+        <v>1.928575829826446</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.1189250366106481</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1632318000381428</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1410784183243954</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.20837061297158</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2167747356859282</v>
       </c>
       <c r="N9" t="n">
-        <v>1.129554360817876</v>
+        <v>1.012973393705124</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2260032849696429</v>
       </c>
       <c r="P9" t="n">
-        <v>75.51318630499273</v>
+        <v>80.11558619608442</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.6115918251162</v>
+        <v>125.2139917162078</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_15</t>
+          <t>model_18_8_17</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9929395985121378</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7115083908869919</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9328209978373527</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9571475009549877</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9501016562758325</v>
       </c>
       <c r="G10" t="n">
-        <v>0.469262412304898</v>
+        <v>0.04721293725949401</v>
       </c>
       <c r="H10" t="n">
-        <v>1.841566075300257</v>
+        <v>1.9291447185204</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.1234477774827226</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1622864731644552</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1428671253235889</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.213529182288595</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2172853820658307</v>
       </c>
       <c r="N10" t="n">
-        <v>1.129554360817876</v>
+        <v>1.013034587362207</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2265356706231215</v>
       </c>
       <c r="P10" t="n">
-        <v>75.51318630499273</v>
+        <v>80.1061746589337</v>
       </c>
       <c r="Q10" t="n">
-        <v>120.6115918251162</v>
+        <v>125.2045801790571</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_14</t>
+          <t>model_18_8_8</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9920566518101714</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7115066524195097</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9629681860413949</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9467450671443111</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9528963464257837</v>
       </c>
       <c r="G11" t="n">
-        <v>0.469262412304898</v>
+        <v>0.05311720592113914</v>
       </c>
       <c r="H11" t="n">
-        <v>1.841566075300257</v>
+        <v>1.929156343660458</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.06804946459721745</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.2016814753949699</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1348654699960937</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.133081336078049</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.230471703081179</v>
       </c>
       <c r="N11" t="n">
-        <v>1.129554360817876</v>
+        <v>1.014664642811991</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2402833606235408</v>
       </c>
       <c r="P11" t="n">
-        <v>75.51318630499273</v>
+        <v>79.87050874914701</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.6115918251162</v>
+        <v>124.9689142692704</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_13</t>
+          <t>model_18_8_18</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9928973563824234</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7114209194394765</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9305604754795196</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9573092495119936</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9494832203135393</v>
       </c>
       <c r="G12" t="n">
-        <v>0.469262412304898</v>
+        <v>0.04749541057540139</v>
       </c>
       <c r="H12" t="n">
-        <v>1.841566075300257</v>
+        <v>1.929729640492705</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.1276017013583537</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.161673916057147</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1446378087077503</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.218104287716445</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2179344180605748</v>
       </c>
       <c r="N12" t="n">
-        <v>1.129554360817876</v>
+        <v>1.013112572832449</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2272123374238516</v>
       </c>
       <c r="P12" t="n">
-        <v>75.51318630499273</v>
+        <v>80.09424438414948</v>
       </c>
       <c r="Q12" t="n">
-        <v>120.6115918251162</v>
+        <v>125.1926499042729</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_23</t>
+          <t>model_18_8_19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9928492827018537</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7113334530196138</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9284884744691401</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9574043028048946</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.948881172611598</v>
       </c>
       <c r="G13" t="n">
-        <v>0.469262412304898</v>
+        <v>0.04781687949873021</v>
       </c>
       <c r="H13" t="n">
-        <v>1.841566075300257</v>
+        <v>1.930314528845073</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.131409199407432</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1613139402328344</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1463615698201332</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.222166219666197</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2186707101985317</v>
       </c>
       <c r="N13" t="n">
-        <v>1.129554360817876</v>
+        <v>1.013201324242732</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2279799750424561</v>
       </c>
       <c r="P13" t="n">
-        <v>75.51318630499273</v>
+        <v>80.08075314846221</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.6115918251162</v>
+        <v>125.1791586685856</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_12</t>
+          <t>model_18_8_20</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9927978240374774</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7112475836022548</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9265934098391478</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9574485513830072</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9483023047030757</v>
       </c>
       <c r="G14" t="n">
-        <v>0.469262412304898</v>
+        <v>0.0481609838243593</v>
       </c>
       <c r="H14" t="n">
-        <v>1.841566075300257</v>
+        <v>1.930888738034344</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.1348915601038929</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1611463666759952</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1480189633899441</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.2257774333534</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2194561091069449</v>
       </c>
       <c r="N14" t="n">
-        <v>1.129554360817876</v>
+        <v>1.013296324853888</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2287988100084004</v>
       </c>
       <c r="P14" t="n">
-        <v>75.51318630499273</v>
+        <v>80.06641209988712</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.6115918251162</v>
+        <v>125.1648176200106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_10</t>
+          <t>model_18_8_7</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9915880029383188</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7112238343001531</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9673597464933275</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9432984594594072</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.952026203780468</v>
       </c>
       <c r="G15" t="n">
-        <v>0.469262412304898</v>
+        <v>0.05625106308514674</v>
       </c>
       <c r="H15" t="n">
-        <v>1.841566075300257</v>
+        <v>1.931047549726854</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.05997955644110125</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.2147341051838891</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1373568308124952</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.116974783368422</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.237173065682313</v>
       </c>
       <c r="N15" t="n">
-        <v>1.129554360817876</v>
+        <v>1.015529840729257</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.247270014104338</v>
       </c>
       <c r="P15" t="n">
-        <v>75.51318630499273</v>
+        <v>79.7558606775694</v>
       </c>
       <c r="Q15" t="n">
-        <v>120.6115918251162</v>
+        <v>124.8542661976928</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_9</t>
+          <t>model_18_8_21</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9927449139654129</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7111645796082686</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9248628138373041</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9574549775178816</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9477512014493025</v>
       </c>
       <c r="G16" t="n">
-        <v>0.469262412304898</v>
+        <v>0.04851479371988398</v>
       </c>
       <c r="H16" t="n">
-        <v>1.841566075300257</v>
+        <v>1.931443786124328</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.1380716941230148</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1611220302944986</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1495968622087567</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.228991126493578</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2202607403054025</v>
       </c>
       <c r="N16" t="n">
-        <v>1.129554360817876</v>
+        <v>1.01339400498693</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2296376960227926</v>
       </c>
       <c r="P16" t="n">
-        <v>75.51318630499273</v>
+        <v>80.05177300479433</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.6115918251162</v>
+        <v>125.1501785249177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_8</t>
+          <t>model_18_8_22</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9926919393405212</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7110852797613432</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.923285331225045</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9574341161279813</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9472311861685099</v>
       </c>
       <c r="G17" t="n">
-        <v>0.469262412304898</v>
+        <v>0.04886903528045945</v>
       </c>
       <c r="H17" t="n">
-        <v>1.841566075300257</v>
+        <v>1.931974064565861</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.1409704677908575</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1612010343541838</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1510857510725206</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.231852527180219</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2210634191368157</v>
       </c>
       <c r="N17" t="n">
-        <v>1.129554360817876</v>
+        <v>1.013491804294422</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2304745465538333</v>
       </c>
       <c r="P17" t="n">
-        <v>75.51318630499273</v>
+        <v>80.03722261684327</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.6115918251162</v>
+        <v>125.1356281369667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_7</t>
+          <t>model_18_8_23</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.99263989904686</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7110101061777907</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9218490822551116</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9573931515774284</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9467431979804333</v>
       </c>
       <c r="G18" t="n">
-        <v>0.469262412304898</v>
+        <v>0.04921702896379593</v>
       </c>
       <c r="H18" t="n">
-        <v>1.841566075300257</v>
+        <v>1.932476750665219</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.1436097112678721</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1613561709875695</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1524829411277208</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.234406159007754</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2218491130561399</v>
       </c>
       <c r="N18" t="n">
-        <v>1.129554360817876</v>
+        <v>1.01358787868272</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2312936890899137</v>
       </c>
       <c r="P18" t="n">
-        <v>75.51318630499273</v>
+        <v>80.02303119643655</v>
       </c>
       <c r="Q18" t="n">
-        <v>120.6115918251162</v>
+        <v>125.12143671656</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_6</t>
+          <t>model_18_8_24</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9925895453615968</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7109394183790266</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9205433129636164</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9573385477652782</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.946288064461647</v>
       </c>
       <c r="G19" t="n">
-        <v>0.469262412304898</v>
+        <v>0.04955374428900816</v>
       </c>
       <c r="H19" t="n">
-        <v>1.841566075300257</v>
+        <v>1.932949440301041</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.146009185980968</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.1615629607966282</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1537860628871692</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.236683907239847</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2226067031538093</v>
       </c>
       <c r="N19" t="n">
-        <v>1.129554360817876</v>
+        <v>1.013680839332437</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2320835313664686</v>
       </c>
       <c r="P19" t="n">
-        <v>75.51318630499273</v>
+        <v>80.00939491037616</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.6115918251162</v>
+        <v>125.1078004304996</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_5</t>
+          <t>model_18_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.990958341126839</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7108068422293903</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9718729018626118</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9389207266185817</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9505792835971286</v>
       </c>
       <c r="G20" t="n">
-        <v>0.469262412304898</v>
+        <v>0.06046161451783826</v>
       </c>
       <c r="H20" t="n">
-        <v>1.841566075300257</v>
+        <v>1.933835977624117</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.05168620611083782</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.2313129941408086</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1414996001258232</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.098562598433688</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2458894355555729</v>
       </c>
       <c r="N20" t="n">
-        <v>1.129554360817876</v>
+        <v>1.016692293304297</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2563574578884757</v>
       </c>
       <c r="P20" t="n">
-        <v>75.51318630499273</v>
+        <v>79.61149317217327</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.6115918251162</v>
+        <v>124.7098986922967</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_4</t>
+          <t>model_18_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9901253515180056</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7102163919074889</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9764485397396749</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9333871975487231</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9483880307873943</v>
       </c>
       <c r="G21" t="n">
-        <v>0.469262412304898</v>
+        <v>0.06603181986767179</v>
       </c>
       <c r="H21" t="n">
-        <v>1.841566075300257</v>
+        <v>1.937784321645445</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.04327803825622088</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.2522689929019793</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1477735155791001</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.077497548804156</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2569665734442357</v>
       </c>
       <c r="N21" t="n">
-        <v>1.129554360817876</v>
+        <v>1.018230120274451</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2679061724698953</v>
       </c>
       <c r="P21" t="n">
-        <v>75.51318630499273</v>
+        <v>79.43523706786138</v>
       </c>
       <c r="Q21" t="n">
-        <v>120.6115918251162</v>
+        <v>124.5336425879848</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_3</t>
+          <t>model_18_8_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9890371349927636</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7094031398963881</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9810069210368384</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9264269302201493</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9452476679496914</v>
       </c>
       <c r="G22" t="n">
-        <v>0.469262412304898</v>
+        <v>0.07330872878274175</v>
       </c>
       <c r="H22" t="n">
-        <v>1.841566075300257</v>
+        <v>1.943222541588357</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.03490158100115135</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.2786281845992837</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1567648883905056</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.053375759201374</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2707558471810752</v>
       </c>
       <c r="N22" t="n">
-        <v>1.129554360817876</v>
+        <v>1.020239135397975</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2822824841374439</v>
       </c>
       <c r="P22" t="n">
-        <v>75.51318630499273</v>
+        <v>79.2261511883903</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.6115918251162</v>
+        <v>124.3245567085137</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_2</t>
+          <t>model_18_8_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9876297960591469</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7083055286889814</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9854452546879425</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9177113628279494</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9409079188827304</v>
       </c>
       <c r="G23" t="n">
-        <v>0.469262412304898</v>
+        <v>0.08271961071203623</v>
       </c>
       <c r="H23" t="n">
-        <v>1.841566075300257</v>
+        <v>1.950562272786321</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.02674572266272197</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.3116348639115343</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1691903002889401</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3376508542801637</v>
+        <v>1.025732458990258</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.2876101714335504</v>
       </c>
       <c r="N23" t="n">
-        <v>1.129554360817876</v>
+        <v>1.022837299583113</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.2998543318666079</v>
       </c>
       <c r="P23" t="n">
-        <v>75.51318630499273</v>
+        <v>78.98459714865099</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.6115918251162</v>
+        <v>124.0830026687744</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_1</t>
+          <t>model_18_8_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9858252723063453</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7068471394781587</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9896324414278677</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.9068457658496083</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9350656613880171</v>
       </c>
       <c r="G24" t="n">
-        <v>0.469262412304898</v>
+        <v>0.09478646935608864</v>
       </c>
       <c r="H24" t="n">
-        <v>1.841566075300257</v>
+        <v>1.960314528154357</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.0190513705540465</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.3527839089319688</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.1859176397430077</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9940263328440091</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.3078741128384922</v>
       </c>
       <c r="N24" t="n">
-        <v>1.129554360817876</v>
+        <v>1.026168728049824</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.3209809512092996</v>
       </c>
       <c r="P24" t="n">
-        <v>75.51318630499273</v>
+        <v>78.71225721643823</v>
       </c>
       <c r="Q24" t="n">
-        <v>120.6115918251162</v>
+        <v>123.8106627365617</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_11</t>
+          <t>model_18_8_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9835278232559823</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7049336209217554</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9934027370396529</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.8933560836392622</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.9273541865735735</v>
       </c>
       <c r="G25" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1101495217346457</v>
       </c>
       <c r="H25" t="n">
-        <v>1.841566075300257</v>
+        <v>1.973110235551969</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.01212309536768879</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.4038706132972572</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.2079968543324729</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.957662237531309</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.3318878149836864</v>
       </c>
       <c r="N25" t="n">
-        <v>1.129554360817876</v>
+        <v>1.030410172450494</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.3460169663700311</v>
       </c>
       <c r="P25" t="n">
-        <v>75.51318630499273</v>
+        <v>78.41183309537847</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.6115918251162</v>
+        <v>123.5102386155019</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_24</t>
+          <t>model_18_8_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9298247212236502</v>
+        <v>0.9806202272585672</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7246052329558914</v>
+        <v>0.7024492212397094</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9892919767590101</v>
+        <v>0.9965463305822855</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6449069017050311</v>
+        <v>0.8766739942014525</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8488307648806226</v>
+        <v>0.917330309385234</v>
       </c>
       <c r="G26" t="n">
-        <v>0.469262412304898</v>
+        <v>0.1295926295576093</v>
       </c>
       <c r="H26" t="n">
-        <v>1.841566075300257</v>
+        <v>1.989723427665419</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01774961222854259</v>
+        <v>0.006346444574223772</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8985662428071279</v>
+        <v>0.4670472662395376</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4581579275178352</v>
+        <v>0.2366968554068807</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3376508542801637</v>
+        <v>0.9159656844306415</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6850273077074358</v>
+        <v>0.3599897631289108</v>
       </c>
       <c r="N26" t="n">
-        <v>1.129554360817876</v>
+        <v>1.035778041984184</v>
       </c>
       <c r="O26" t="n">
-        <v>0.7141903383985572</v>
+        <v>0.3753152726268499</v>
       </c>
       <c r="P26" t="n">
-        <v>75.51318630499273</v>
+        <v>78.08671873475724</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.6115918251162</v>
+        <v>123.1851242548807</v>
       </c>
     </row>
   </sheetData>
